--- a/public/file/sample_sku.xlsx
+++ b/public/file/sample_sku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\qcommerce\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC8525-2994-4B1A-9F25-A4882FC31777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A82BA-63C0-41BB-A583-B93AC44C1BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_sku" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>code</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>alert_quantity</t>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +910,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -938,25 +935,22 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -965,9 +959,6 @@
         <v>150</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
     </row>
